--- a/public/templates/user-import-template.xlsx
+++ b/public/templates/user-import-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\www\logistics\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\www\uni-affair\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D5DD84-1305-4BE2-9082-2EA63B8A00D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1166E60-CE9B-4A83-82D6-0829177C81B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{4174B31D-AD2C-B645-BEDD-DD1D3AA79D01}"/>
+    <workbookView xWindow="1056" yWindow="2280" windowWidth="23040" windowHeight="12132" xr2:uid="{4174B31D-AD2C-B645-BEDD-DD1D3AA79D01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,33 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>刘涌</author>
-  </authors>
-  <commentList>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{82EAB541-E7E8-45AE-BA74-00E890AAF24B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>如果为空则默认为联系电话后6位</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>姓名</t>
   </si>
@@ -88,6 +63,56 @@
   </si>
   <si>
     <t>手机号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>职迅学工系统用户数据导入模板</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>红色列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为必填项。
+2. 初始密码如果为空则默认为手机号码后6位</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,7 +120,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -110,20 +135,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -136,10 +147,41 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -164,22 +206,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -200,9 +248,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -240,7 +288,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -346,7 +394,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -488,18 +536,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F7E5E1-7CFE-244D-8EA4-E25518279E82}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F7E5E1-7CFE-244D-8EA4-E25518279E82}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -509,53 +557,67 @@
     <col min="4" max="4" width="16.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
+    <row r="1" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>1000001</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>13000000000</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{98DFE616-D342-DF4C-9D03-1219F1B22B6E}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{98DFE616-D342-DF4C-9D03-1219F1B22B6E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/public/templates/user-import-template.xlsx
+++ b/public/templates/user-import-template.xlsx
@@ -1,89 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\www\uni-affair\public\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1166E60-CE9B-4A83-82D6-0829177C81B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1056" yWindow="2280" windowWidth="23040" windowHeight="12132" xr2:uid="{4174B31D-AD2C-B645-BEDD-DD1D3AA79D01}"/>
+    <workbookView windowWidth="20424" windowHeight="7848"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>电子邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test@demo.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>职迅学工系统用户数据导入模板</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -94,8 +47,7 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -105,95 +57,488 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>为必填项。
-2. 初始密码如果为空则默认为手机号码后6位</t>
+      <t xml:space="preserve">为必填项。
+2. </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>登录账号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">为空时将默认使用工号作为登录账号
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>初始密码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果为空则默认为手机号码后6位</t>
+    </r>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>工号</t>
+  </si>
+  <si>
+    <t>登录账号</t>
+  </si>
+  <si>
+    <t>手机号码</t>
+  </si>
+  <si>
+    <t>电子邮箱</t>
+  </si>
+  <si>
+    <t>用户角色</t>
+  </si>
+  <si>
+    <t>所属部门</t>
+  </si>
+  <si>
+    <t>职位</t>
+  </si>
+  <si>
+    <t>初始密码</t>
+  </si>
+  <si>
+    <t>小红</t>
+  </si>
+  <si>
+    <t>test@demo.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -201,12 +546,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -214,34 +798,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -290,7 +917,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -323,26 +950,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -375,23 +985,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office 2013 - 2022">
@@ -533,91 +1126,90 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F7E5E1-7CFE-244D-8EA4-E25518279E82}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.9083333333333" defaultRowHeight="15.6" outlineLevelRow="2"/>
   <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" customWidth="1"/>
+    <col min="2" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="13.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="16.8166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="105" customHeight="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
       </c>
       <c r="B3">
         <v>1000001</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>13000000000</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>2</v>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{98DFE616-D342-DF4C-9D03-1219F1B22B6E}"/>
+    <hyperlink ref="E3" r:id="rId1" display="test@demo.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>